--- a/xlsx_planificar_estudio.xlsx
+++ b/xlsx_planificar_estudio.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Desktop\AP2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD5F97-8E9F-4BC3-8AFC-EF7F8E896CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14316" windowHeight="5016" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planificar hs de Estudio 1" sheetId="2" r:id="rId1"/>
     <sheet name="planificar hs de Estudio 2 " sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhzFeevQVxgvYuzo1BX/S79yiDZUA=="/>
@@ -210,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1517,6 +1523,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1578,27 +1605,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1856,91 +1862,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1010"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="1.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="1.375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.3984375" customWidth="1"/>
-    <col min="11" max="11" width="9.69921875" customWidth="1"/>
-    <col min="12" max="12" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="5.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.3984375" customWidth="1"/>
-    <col min="15" max="15" width="9.3984375" customWidth="1"/>
-    <col min="16" max="16" width="11.09765625" customWidth="1"/>
-    <col min="17" max="18" width="6.19921875" customWidth="1"/>
-    <col min="19" max="29" width="9.3984375" customWidth="1"/>
+    <col min="14" max="14" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
+    <col min="17" max="18" width="6.25" customWidth="1"/>
+    <col min="19" max="29" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="34"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-    </row>
-    <row r="2" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="35"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="87" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="92" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="94"/>
-    </row>
-    <row r="3" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="85" t="s">
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="29">
         <v>6</v>
       </c>
@@ -2017,11 +2023,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="85" t="s">
+    <row r="4" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27" t="s">
         <v>13</v>
@@ -2048,32 +2054,32 @@
       <c r="V4" s="28"/>
       <c r="W4" s="32"/>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-    </row>
-    <row r="6" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="7"/>
@@ -2096,13 +2102,13 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="97" t="s">
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="95">
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="104">
         <f>COUNTIF(E4:W4,UPPER("x"))</f>
         <v>3</v>
       </c>
@@ -2117,26 +2123,26 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="96"/>
-    </row>
-    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C10" s="83" t="s">
+    <row r="8" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="105"/>
+    </row>
+    <row r="10" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C10" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="37"/>
       <c r="C11" s="4"/>
@@ -2156,13 +2162,13 @@
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" spans="1:23" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="61">
         <v>1</v>
       </c>
@@ -2191,13 +2197,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
@@ -2226,13 +2232,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="102"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="15">
         <v>13</v>
       </c>
@@ -2261,13 +2267,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="105"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="17">
         <v>1.5</v>
       </c>
@@ -2296,13 +2302,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="102"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="18">
         <f t="shared" ref="E16:M16" si="1">ROUND(E14/E15,1)</f>
         <v>8.6999999999999993</v>
@@ -2340,13 +2346,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="20">
         <f t="shared" ref="E17:M17" si="2">E14-SUM(E20:E100)</f>
         <v>2</v>
@@ -2384,7 +2390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
@@ -2399,7 +2405,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="38"/>
       <c r="C19" s="11" t="s">
@@ -2418,8 +2424,8 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="39" t="s">
@@ -2444,11 +2450,11 @@
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
-      <c r="N20" s="103" t="s">
+      <c r="N20" s="80" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="39" t="s">
         <v>1</v>
@@ -2470,9 +2476,9 @@
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
-      <c r="N21" s="103"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N21" s="80"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="39" t="s">
         <v>2</v>
@@ -2496,9 +2502,9 @@
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
-      <c r="N22" s="103"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N22" s="80"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="39" t="s">
         <v>3</v>
@@ -2522,9 +2528,9 @@
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="103"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N23" s="80"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="39" t="s">
         <v>4</v>
@@ -2548,9 +2554,9 @@
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="103"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N24" s="80"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
       <c r="B25" s="39" t="s">
         <v>5</v>
@@ -2572,9 +2578,9 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="103"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N25" s="80"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="79"/>
       <c r="B26" s="41" t="s">
         <v>6</v>
@@ -2598,9 +2604,9 @@
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
       <c r="M26" s="54"/>
-      <c r="N26" s="103"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N26" s="80"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>26</v>
       </c>
@@ -2628,9 +2634,9 @@
       <c r="K27" s="56"/>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
-      <c r="N27" s="103"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N27" s="80"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="39" t="s">
         <v>1</v>
@@ -2656,9 +2662,9 @@
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
       <c r="M28" s="52"/>
-      <c r="N28" s="103"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N28" s="80"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="39" t="s">
         <v>2</v>
@@ -2684,9 +2690,9 @@
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
-      <c r="N29" s="103"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N29" s="80"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="39" t="s">
         <v>3</v>
@@ -2714,9 +2720,9 @@
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="52"/>
-      <c r="N30" s="103"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="80"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="39" t="s">
         <v>4</v>
@@ -2746,9 +2752,9 @@
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
       <c r="M31" s="52"/>
-      <c r="N31" s="103"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="80"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
       <c r="B32" s="39" t="s">
         <v>5</v>
@@ -2776,9 +2782,9 @@
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="52"/>
-      <c r="N32" s="103"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="80"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="41" t="s">
         <v>6</v>
@@ -2806,9 +2812,9 @@
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
-      <c r="N33" s="103"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="80"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>27</v>
       </c>
@@ -2836,9 +2842,9 @@
       <c r="K34" s="56"/>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
-      <c r="N34" s="103"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="80"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78"/>
       <c r="B35" s="39" t="s">
         <v>1</v>
@@ -2864,9 +2870,9 @@
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
-      <c r="N35" s="103"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="80"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="39" t="s">
         <v>2</v>
@@ -2890,9 +2896,9 @@
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
       <c r="M36" s="52"/>
-      <c r="N36" s="103"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="80"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="39" t="s">
         <v>3</v>
@@ -2916,9 +2922,9 @@
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
       <c r="M37" s="52"/>
-      <c r="N37" s="103"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="80"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="39" t="s">
         <v>4</v>
@@ -2942,9 +2948,9 @@
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
       <c r="M38" s="52"/>
-      <c r="N38" s="103"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="80"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
       <c r="B39" s="39" t="s">
         <v>5</v>
@@ -2966,9 +2972,9 @@
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
       <c r="M39" s="52"/>
-      <c r="N39" s="103"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="80"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="79"/>
       <c r="B40" s="41" t="s">
         <v>6</v>
@@ -2990,9 +2996,9 @@
       <c r="K40" s="54"/>
       <c r="L40" s="54"/>
       <c r="M40" s="54"/>
-      <c r="N40" s="103"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="80"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="77" t="s">
         <v>28</v>
       </c>
@@ -3016,9 +3022,9 @@
       <c r="K41" s="56"/>
       <c r="L41" s="56"/>
       <c r="M41" s="56"/>
-      <c r="N41" s="103"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="80"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="39" t="s">
         <v>1</v>
@@ -3040,9 +3046,9 @@
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
       <c r="M42" s="52"/>
-      <c r="N42" s="103"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="80"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="39" t="s">
         <v>2</v>
@@ -3066,7 +3072,7 @@
       <c r="M43" s="52"/>
       <c r="N43" s="50"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
       <c r="B44" s="39" t="s">
         <v>3</v>
@@ -3090,7 +3096,7 @@
       <c r="M44" s="52"/>
       <c r="N44" s="50"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78"/>
       <c r="B45" s="39" t="s">
         <v>4</v>
@@ -3114,7 +3120,7 @@
       <c r="M45" s="52"/>
       <c r="N45" s="50"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="78"/>
       <c r="B46" s="39" t="s">
         <v>5</v>
@@ -3138,7 +3144,7 @@
       <c r="M46" s="52"/>
       <c r="N46" s="50"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
       <c r="B47" s="41" t="s">
         <v>6</v>
@@ -3162,7 +3168,7 @@
       <c r="M47" s="54"/>
       <c r="N47" s="50"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>29</v>
       </c>
@@ -3188,7 +3194,7 @@
       <c r="M48" s="56"/>
       <c r="N48" s="50"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="78"/>
       <c r="B49" s="39" t="s">
         <v>1</v>
@@ -3212,7 +3218,7 @@
       <c r="M49" s="52"/>
       <c r="N49" s="50"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
       <c r="B50" s="39" t="s">
         <v>2</v>
@@ -3236,7 +3242,7 @@
       <c r="M50" s="52"/>
       <c r="N50" s="50"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="78"/>
       <c r="B51" s="39" t="s">
         <v>3</v>
@@ -3260,7 +3266,7 @@
       <c r="M51" s="52"/>
       <c r="N51" s="50"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="78"/>
       <c r="B52" s="39" t="s">
         <v>4</v>
@@ -3284,7 +3290,7 @@
       <c r="M52" s="52"/>
       <c r="N52" s="50"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
       <c r="B53" s="39" t="s">
         <v>5</v>
@@ -3308,7 +3314,7 @@
       <c r="M53" s="52"/>
       <c r="N53" s="50"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="79"/>
       <c r="B54" s="41" t="s">
         <v>6</v>
@@ -3332,7 +3338,7 @@
       <c r="M54" s="54"/>
       <c r="N54" s="50"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>30</v>
       </c>
@@ -3358,8 +3364,8 @@
       <c r="M55" s="58"/>
       <c r="N55" s="50"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="89"/>
       <c r="B56" s="39" t="s">
         <v>1</v>
       </c>
@@ -3382,8 +3388,8 @@
       <c r="M56" s="52"/>
       <c r="N56" s="50"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="80"/>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="89"/>
       <c r="B57" s="39" t="s">
         <v>2</v>
       </c>
@@ -3406,8 +3412,8 @@
       <c r="M57" s="52"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="80"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="89"/>
       <c r="B58" s="39" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3436,8 @@
       <c r="M58" s="52"/>
       <c r="N58" s="50"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="80"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="89"/>
       <c r="B59" s="39" t="s">
         <v>4</v>
       </c>
@@ -3454,8 +3460,8 @@
       <c r="M59" s="52"/>
       <c r="N59" s="50"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="80"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="89"/>
       <c r="B60" s="39" t="s">
         <v>5</v>
       </c>
@@ -3478,8 +3484,8 @@
       <c r="M60" s="52"/>
       <c r="N60" s="50"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="81"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="90"/>
       <c r="B61" s="41" t="s">
         <v>6</v>
       </c>
@@ -3502,955 +3508,955 @@
       <c r="M61" s="60"/>
       <c r="N61" s="50"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="E20:M61" name="datos"/>
@@ -4458,13 +4464,6 @@
     <protectedRange sqref="E4:W5" name="Horas_libres"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="N20:N42"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:A26"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A61"/>
     <mergeCell ref="E5:W5"/>
@@ -4481,6 +4480,13 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="N20:N42"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="D20:D61">
     <cfRule type="iconSet" priority="1">
@@ -4497,61 +4503,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="1.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="1.375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="9" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" customWidth="1"/>
-    <col min="12" max="13" width="6.19921875" customWidth="1"/>
+    <col min="8" max="9" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="13" width="6.25" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="24" width="9.3984375" customWidth="1"/>
+    <col min="15" max="24" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="34"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C2" s="83" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="37"/>
       <c r="C3" s="5"/>
@@ -4566,14 +4572,14 @@
       <c r="J3" s="110"/>
       <c r="K3" s="110"/>
     </row>
-    <row r="4" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="111"/>
-      <c r="E4" s="107"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="61">
         <v>1</v>
       </c>
@@ -4602,14 +4608,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="112"/>
-      <c r="E5" s="102"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
@@ -4638,14 +4644,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="112"/>
-      <c r="E6" s="102"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="15">
         <v>13</v>
       </c>
@@ -4674,14 +4680,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="81" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="113"/>
-      <c r="E7" s="105"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="17">
         <v>1.5</v>
       </c>
@@ -4710,14 +4716,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="112"/>
-      <c r="E8" s="102"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="18">
         <f t="shared" ref="F8:N8" si="0">ROUND(F6/F7,1)</f>
         <v>8.6999999999999993</v>
@@ -4755,17 +4761,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="87" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="114"/>
       <c r="E9" s="115"/>
       <c r="F9" s="75">
         <f>F6-SUM(F12:F92)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="76">
         <f>G6-SUM(G12:G92)</f>
@@ -4800,7 +4806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="37"/>
       <c r="C10" s="118" t="s">
@@ -4822,7 +4828,7 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="38"/>
       <c r="C11" s="119"/>
@@ -4838,8 +4844,8 @@
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -4869,11 +4875,11 @@
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="103" t="s">
+      <c r="O12" s="80" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="39" t="s">
         <v>1</v>
@@ -4898,9 +4904,9 @@
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
-      <c r="O13" s="103"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O13" s="80"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="39" t="s">
         <v>2</v>
@@ -4914,10 +4920,10 @@
       </c>
       <c r="E14" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -4929,9 +4935,9 @@
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
-      <c r="O14" s="103"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O14" s="80"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="39" t="s">
         <v>3</v>
@@ -4956,9 +4962,9 @@
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="103"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O15" s="80"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="39" t="s">
         <v>4</v>
@@ -4985,9 +4991,9 @@
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
-      <c r="O16" s="103"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O16" s="80"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5016,9 +5022,9 @@
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
       <c r="N17" s="52"/>
-      <c r="O17" s="103"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O17" s="80"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="41" t="s">
         <v>6</v>
@@ -5032,10 +5038,10 @@
       </c>
       <c r="E18" s="71">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
@@ -5045,9 +5051,9 @@
       <c r="L18" s="54"/>
       <c r="M18" s="54"/>
       <c r="N18" s="54"/>
-      <c r="O18" s="103"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O18" s="80"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>26</v>
       </c>
@@ -5072,9 +5078,9 @@
       <c r="L19" s="56"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="103"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O19" s="80"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="39" t="s">
         <v>1</v>
@@ -5097,9 +5103,9 @@
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52"/>
-      <c r="O20" s="103"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O20" s="80"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="39" t="s">
         <v>2</v>
@@ -5122,9 +5128,9 @@
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
       <c r="N21" s="52"/>
-      <c r="O21" s="103"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O21" s="80"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="39" t="s">
         <v>3</v>
@@ -5147,9 +5153,9 @@
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
-      <c r="O22" s="103"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="80"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="39" t="s">
         <v>4</v>
@@ -5172,9 +5178,9 @@
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
-      <c r="O23" s="103"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="80"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="39" t="s">
         <v>5</v>
@@ -5197,9 +5203,9 @@
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
       <c r="N24" s="52"/>
-      <c r="O24" s="103"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="80"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
       <c r="B25" s="41" t="s">
         <v>6</v>
@@ -5222,9 +5228,9 @@
       <c r="L25" s="54"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
-      <c r="O25" s="103"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="80"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>27</v>
       </c>
@@ -5249,9 +5255,9 @@
       <c r="L26" s="56"/>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="103"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="80"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78"/>
       <c r="B27" s="39" t="s">
         <v>1</v>
@@ -5274,9 +5280,9 @@
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
-      <c r="O27" s="103"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="80"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="39" t="s">
         <v>2</v>
@@ -5299,9 +5305,9 @@
       <c r="L28" s="52"/>
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
-      <c r="O28" s="103"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="80"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="39" t="s">
         <v>3</v>
@@ -5324,9 +5330,9 @@
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
-      <c r="O29" s="103"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="80"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="39" t="s">
         <v>4</v>
@@ -5349,9 +5355,9 @@
       <c r="L30" s="52"/>
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="103"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="80"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="39" t="s">
         <v>5</v>
@@ -5374,9 +5380,9 @@
       <c r="L31" s="52"/>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
-      <c r="O31" s="103"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="80"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="79"/>
       <c r="B32" s="41" t="s">
         <v>6</v>
@@ -5399,9 +5405,9 @@
       <c r="L32" s="54"/>
       <c r="M32" s="54"/>
       <c r="N32" s="54"/>
-      <c r="O32" s="103"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="80"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>28</v>
       </c>
@@ -5426,9 +5432,9 @@
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
-      <c r="O33" s="103"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78"/>
       <c r="B34" s="39" t="s">
         <v>1</v>
@@ -5451,9 +5457,9 @@
       <c r="L34" s="52"/>
       <c r="M34" s="52"/>
       <c r="N34" s="52"/>
-      <c r="O34" s="103"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="80"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78"/>
       <c r="B35" s="39" t="s">
         <v>2</v>
@@ -5478,7 +5484,7 @@
       <c r="N35" s="52"/>
       <c r="O35" s="50"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="39" t="s">
         <v>3</v>
@@ -5503,7 +5509,7 @@
       <c r="N36" s="52"/>
       <c r="O36" s="50"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="39" t="s">
         <v>4</v>
@@ -5528,7 +5534,7 @@
       <c r="N37" s="52"/>
       <c r="O37" s="50"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="39" t="s">
         <v>5</v>
@@ -5553,7 +5559,7 @@
       <c r="N38" s="52"/>
       <c r="O38" s="50"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="79"/>
       <c r="B39" s="41" t="s">
         <v>6</v>
@@ -5578,7 +5584,7 @@
       <c r="N39" s="54"/>
       <c r="O39" s="50"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>29</v>
       </c>
@@ -5605,7 +5611,7 @@
       <c r="N40" s="56"/>
       <c r="O40" s="50"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78"/>
       <c r="B41" s="39" t="s">
         <v>1</v>
@@ -5630,7 +5636,7 @@
       <c r="N41" s="52"/>
       <c r="O41" s="50"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="39" t="s">
         <v>2</v>
@@ -5655,7 +5661,7 @@
       <c r="N42" s="52"/>
       <c r="O42" s="50"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="39" t="s">
         <v>3</v>
@@ -5680,7 +5686,7 @@
       <c r="N43" s="52"/>
       <c r="O43" s="50"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
       <c r="B44" s="39" t="s">
         <v>4</v>
@@ -5705,7 +5711,7 @@
       <c r="N44" s="52"/>
       <c r="O44" s="50"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78"/>
       <c r="B45" s="39" t="s">
         <v>5</v>
@@ -5730,7 +5736,7 @@
       <c r="N45" s="52"/>
       <c r="O45" s="50"/>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="79"/>
       <c r="B46" s="41" t="s">
         <v>6</v>
@@ -5755,7 +5761,7 @@
       <c r="N46" s="54"/>
       <c r="O46" s="50"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="s">
         <v>30</v>
       </c>
@@ -5782,8 +5788,8 @@
       <c r="N47" s="58"/>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="89"/>
       <c r="B48" s="39" t="s">
         <v>1</v>
       </c>
@@ -5807,8 +5813,8 @@
       <c r="N48" s="52"/>
       <c r="O48" s="50"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="89"/>
       <c r="B49" s="39" t="s">
         <v>2</v>
       </c>
@@ -5832,8 +5838,8 @@
       <c r="N49" s="52"/>
       <c r="O49" s="50"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="80"/>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="89"/>
       <c r="B50" s="39" t="s">
         <v>3</v>
       </c>
@@ -5857,8 +5863,8 @@
       <c r="N50" s="52"/>
       <c r="O50" s="50"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="80"/>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="89"/>
       <c r="B51" s="39" t="s">
         <v>4</v>
       </c>
@@ -5882,8 +5888,8 @@
       <c r="N51" s="52"/>
       <c r="O51" s="50"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="80"/>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="89"/>
       <c r="B52" s="39" t="s">
         <v>5</v>
       </c>
@@ -5907,8 +5913,8 @@
       <c r="N52" s="52"/>
       <c r="O52" s="50"/>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="81"/>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="90"/>
       <c r="B53" s="41" t="s">
         <v>6</v>
       </c>
@@ -5931,957 +5937,957 @@
       <c r="M53" s="60"/>
       <c r="N53" s="60"/>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L54" s="50"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="F12:K53" name="datos"/>
@@ -6890,11 +6896,6 @@
     <protectedRange sqref="L4:N7" name="Rango2_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="O12:O34"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A46"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="C4:E4"/>
@@ -6909,6 +6910,11 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="O12:O34"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A46"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E53">
     <cfRule type="expression" dxfId="0" priority="2">
